--- a/excercises/excercises/30.MF_gas_fraction.xlsx
+++ b/excercises/excercises/30.MF_gas_fraction.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr updateLinks="always" codeName="Workbook_MF1" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DED54A3-7CF9-47AF-BE56-E60519AB79DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF98993-285B-4921-80B5-9EED98561AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="2340" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -900,7 +900,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1212,7 +1212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1250,7 +1250,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251715584"/>
@@ -1337,7 +1337,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1375,7 +1375,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="217505088"/>
@@ -1417,7 +1417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1447,7 +1447,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1532,7 +1532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1844,7 +1844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1882,7 +1882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251717888"/>
@@ -1975,7 +1975,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2013,7 +2013,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251717312"/>
@@ -2055,7 +2055,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2085,7 +2085,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2162,7 +2162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2474,7 +2474,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2512,7 +2512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251720192"/>
@@ -2597,7 +2597,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2635,7 +2635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251719616"/>
@@ -2677,7 +2677,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2707,7 +2707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2784,7 +2784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3537,7 +3537,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3575,7 +3575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251723072"/>
@@ -3662,7 +3662,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3700,7 +3700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="251722496"/>
@@ -3742,7 +3742,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3772,7 +3772,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4745,7 +4745,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="371905024"/>
@@ -4848,7 +4848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="366048320"/>
@@ -4890,7 +4890,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4920,7 +4920,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7606,13 +7606,13 @@
     <definedNames>
       <definedName name="getUFVersion"/>
       <definedName name="MF_gas_fraction_d"/>
-      <definedName name="MF_Mumix_cP"/>
+      <definedName name="MF_Mu_mix_cP"/>
       <definedName name="MF_p_gas_fraction_atma"/>
-      <definedName name="MF_Qmix_m3day"/>
+      <definedName name="MF_q_mix_rc_m3day"/>
       <definedName name="PVT_encode_string"/>
-      <definedName name="PVT_Mug_cP"/>
-      <definedName name="PVT_Muo_cP"/>
-      <definedName name="PVT_Muw_cP"/>
+      <definedName name="PVT_Mu_gas_cP"/>
+      <definedName name="PVT_mu_oil_cP"/>
+      <definedName name="PVT_mu_wat_cP"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -8211,28 +8211,28 @@
   <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" customWidth="1"/>
-    <col min="12" max="13" width="10.1328125" customWidth="1"/>
-    <col min="23" max="26" width="9.1328125" customWidth="1"/>
-    <col min="27" max="27" width="5.86328125" customWidth="1"/>
-    <col min="28" max="28" width="9.1328125" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -8241,20 +8241,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
@@ -8396,12 +8396,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>37</v>
       </c>
@@ -8423,16 +8423,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="24" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -8452,9 +8452,9 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="24" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="K26" s="2">
         <v>0.25</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.65">
+    <row r="27" spans="2:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C27" s="19" t="s">
         <v>0</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>1</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>80</v>
       </c>
       <c r="E28" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C28,D28,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C28,D28,PVRstr1_)</f>
         <v>4391.5120376224659</v>
       </c>
       <c r="F28" s="9">
@@ -8524,7 +8524,7 @@
         <v>0.98793270966165647</v>
       </c>
       <c r="G28" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C28,D28,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C28,D28,PVRstr1_)</f>
         <v>4.0574822364230649E-2</v>
       </c>
       <c r="I28" s="2">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="J28" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J28)</f>
@@ -8549,7 +8549,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>5</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>80</v>
       </c>
       <c r="E29" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C29,D29,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C29,D29,PVRstr1_)</f>
         <v>904.20035238917603</v>
       </c>
       <c r="F29" s="9">
@@ -8566,7 +8566,7 @@
         <v>0.94125151110898642</v>
       </c>
       <c r="G29" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C29,D29,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C29,D29,PVRstr1_)</f>
         <v>0.1893440087363846</v>
       </c>
       <c r="I29" s="2">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="J29" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J29)</f>
@@ -8591,7 +8591,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>10</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>80</v>
       </c>
       <c r="E30" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C30,D30,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C30,D30,PVRstr1_)</f>
         <v>467.27921635167581</v>
       </c>
       <c r="F30" s="9">
@@ -8608,7 +8608,7 @@
         <v>0.88590427083134249</v>
       </c>
       <c r="G30" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C30,D30,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C30,D30,PVRstr1_)</f>
         <v>0.34619325188466088</v>
       </c>
       <c r="I30" s="2">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="J30" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J30)</f>
@@ -8633,7 +8633,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>20</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C31,D31,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C31,D31,PVRstr1_)</f>
         <v>248.5154013622934</v>
       </c>
       <c r="F31" s="9">
@@ -8650,7 +8650,7 @@
         <v>0.78364910048452585</v>
       </c>
       <c r="G31" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C31,D31,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C31,D31,PVRstr1_)</f>
         <v>0.58039772610102403</v>
       </c>
       <c r="I31" s="2">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="J31" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J31)</f>
@@ -8675,7 +8675,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>40</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>80</v>
       </c>
       <c r="E32" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C32,D32,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C32,D32,PVRstr1_)</f>
         <v>139.62214237537529</v>
       </c>
       <c r="F32" s="9">
@@ -8692,7 +8692,7 @@
         <v>0.60729384514719098</v>
       </c>
       <c r="G32" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C32,D32,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C32,D32,PVRstr1_)</f>
         <v>0.84192882109720135</v>
       </c>
       <c r="I32" s="2">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="J32" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J32)</f>
@@ -8717,7 +8717,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>60</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C33,D33,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C33,D33,PVRstr1_)</f>
         <v>104.11632695985338</v>
       </c>
       <c r="F33" s="9">
@@ -8734,7 +8734,7 @@
         <v>0.4616900660023206</v>
       </c>
       <c r="G33" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C33,D33,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C33,D33,PVRstr1_)</f>
         <v>0.95659985043074536</v>
       </c>
       <c r="I33" s="2">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="J33" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J33)</f>
@@ -8759,7 +8759,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>80</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>80</v>
       </c>
       <c r="E34" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C34,D34,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C34,D34,PVRstr1_)</f>
         <v>87.013551683221934</v>
       </c>
       <c r="F34" s="9">
@@ -8776,7 +8776,7 @@
         <v>0.34051027000932615</v>
       </c>
       <c r="G34" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C34,D34,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C34,D34,PVRstr1_)</f>
         <v>1.0015398815906351</v>
       </c>
       <c r="I34" s="2">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="J34" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J34)</f>
@@ -8801,7 +8801,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>100</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>80</v>
       </c>
       <c r="E35" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C35,D35,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C35,D35,PVRstr1_)</f>
         <v>77.256519686875777</v>
       </c>
       <c r="F35" s="9">
@@ -8818,7 +8818,7 @@
         <v>0.23855116801020473</v>
       </c>
       <c r="G35" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C35,D35,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C35,D35,PVRstr1_)</f>
         <v>1.0120226232560241</v>
       </c>
       <c r="I35" s="2">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="J35" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J35)</f>
@@ -8843,7 +8843,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>120</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>80</v>
       </c>
       <c r="E36" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C36,D36,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C36,D36,PVRstr1_)</f>
         <v>71.148924372690871</v>
       </c>
       <c r="F36" s="9">
@@ -8860,7 +8860,7 @@
         <v>0.15159744052920571</v>
       </c>
       <c r="G36" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C36,D36,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C36,D36,PVRstr1_)</f>
         <v>1.0052527197285539</v>
       </c>
       <c r="I36" s="2">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="J36" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J36)</f>
@@ -8885,7 +8885,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>140</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>80</v>
       </c>
       <c r="E37" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C37,D37,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C37,D37,PVRstr1_)</f>
         <v>67.107888431840408</v>
       </c>
       <c r="F37" s="9">
@@ -8902,7 +8902,7 @@
         <v>7.6343027915348305E-2</v>
       </c>
       <c r="G37" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C37,D37,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C37,D37,PVRstr1_)</f>
         <v>0.99003395359584967</v>
       </c>
       <c r="I37" s="2">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="J37" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J37)</f>
@@ -8927,7 +8927,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>160</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>80</v>
       </c>
       <c r="E38" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C38,D38,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C38,D38,PVRstr1_)</f>
         <v>64.347327650204249</v>
       </c>
       <c r="F38" s="9">
@@ -8944,7 +8944,7 @@
         <v>1.0279407154448812E-2</v>
       </c>
       <c r="G38" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C38,D38,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C38,D38,PVRstr1_)</f>
         <v>0.97098242916736133</v>
       </c>
       <c r="I38" s="2">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="J38" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J38)</f>
@@ -8969,7 +8969,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>180</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>80</v>
       </c>
       <c r="E39" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C39,D39,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C39,D39,PVRstr1_)</f>
         <v>63.79022169769771</v>
       </c>
       <c r="F39" s="9">
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C39,D39,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C39,D39,PVRstr1_)</f>
         <v>0.98793912415201102</v>
       </c>
       <c r="I39" s="2">
@@ -8994,7 +8994,7 @@
       </c>
       <c r="J39" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K39" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J39)</f>
@@ -9011,7 +9011,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>200</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C40,D40,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C40,D40,PVRstr1_)</f>
         <v>63.615272837447684</v>
       </c>
       <c r="F40" s="9">
@@ -9028,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C40,D40,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C40,D40,PVRstr1_)</f>
         <v>1.0140076087362149</v>
       </c>
       <c r="I40" s="2">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="J40" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K40" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J40)</f>
@@ -9053,7 +9053,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>220</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>80</v>
       </c>
       <c r="E41" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C41,D41,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C41,D41,PVRstr1_)</f>
         <v>63.47169311272107</v>
       </c>
       <c r="F41" s="9">
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C41,D41,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C41,D41,PVRstr1_)</f>
         <v>1.0427522794318631</v>
       </c>
       <c r="I41" s="2">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="J41" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K41" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J41)</f>
@@ -9095,7 +9095,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
         <v>240</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>80</v>
       </c>
       <c r="E42" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C42,D42,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C42,D42,PVRstr1_)</f>
         <v>63.351497011416718</v>
       </c>
       <c r="F42" s="9">
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C42,D42,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C42,D42,PVRstr1_)</f>
         <v>1.0740125122644342</v>
       </c>
       <c r="I42" s="2">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="J42" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K42" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J42)</f>
@@ -9137,7 +9137,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>260</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>80</v>
       </c>
       <c r="E43" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C43,D43,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C43,D43,PVRstr1_)</f>
         <v>63.249180789225058</v>
       </c>
       <c r="F43" s="9">
@@ -9154,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C43,D43,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C43,D43,PVRstr1_)</f>
         <v>1.1076729021604708</v>
       </c>
       <c r="I43" s="2">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="J43" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K43" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J43)</f>
@@ -9179,7 +9179,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>280</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>80</v>
       </c>
       <c r="E44" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C44,D44,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C44,D44,PVRstr1_)</f>
         <v>63.160827885766231</v>
       </c>
       <c r="F44" s="9">
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C44,D44,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C44,D44,PVRstr1_)</f>
         <v>1.1436545591427978</v>
       </c>
       <c r="I44" s="2">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="J44" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K44" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J44)</f>
@@ -9221,7 +9221,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>300</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>80</v>
       </c>
       <c r="E45" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C45,D45,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C45,D45,PVRstr1_)</f>
         <v>63.083575267779999</v>
       </c>
       <c r="F45" s="9">
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C45,D45,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C45,D45,PVRstr1_)</f>
         <v>1.181903418610887</v>
       </c>
       <c r="I45" s="2">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="J45" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K45" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J45)</f>
@@ -9263,7 +9263,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>320</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>80</v>
       </c>
       <c r="E46" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C46,D46,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C46,D46,PVRstr1_)</f>
         <v>63.015281518048091</v>
       </c>
       <c r="F46" s="9">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C46,D46,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C46,D46,PVRstr1_)</f>
         <v>1.2223685247043523</v>
       </c>
       <c r="I46" s="2">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J46" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K46" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J46)</f>
@@ -9305,7 +9305,7 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>340</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>80</v>
       </c>
       <c r="E47" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C47,D47,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C47,D47,PVRstr1_)</f>
         <v>62.954312965509921</v>
       </c>
       <c r="F47" s="9">
@@ -9322,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C47,D47,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C47,D47,PVRstr1_)</f>
         <v>1.2649628676068878</v>
       </c>
       <c r="I47" s="2">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="J47" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K47" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J47)</f>
@@ -9347,7 +9347,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
         <v>360</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>80</v>
       </c>
       <c r="E48" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C48,D48,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C48,D48,PVRstr1_)</f>
         <v>62.899401620941084</v>
       </c>
       <c r="F48" s="9">
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C48,D48,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C48,D48,PVRstr1_)</f>
         <v>1.3095105811563781</v>
       </c>
       <c r="I48" s="2">
@@ -9372,7 +9372,7 @@
       </c>
       <c r="J48" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K48" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J48)</f>
@@ -9389,7 +9389,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>380</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>80</v>
       </c>
       <c r="E49" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C49,D49,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C49,D49,PVRstr1_)</f>
         <v>62.849548282725522</v>
       </c>
       <c r="F49" s="9">
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C49,D49,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C49,D49,PVRstr1_)</f>
         <v>1.3557177604113138</v>
       </c>
       <c r="I49" s="2">
@@ -9414,7 +9414,7 @@
       </c>
       <c r="J49" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1050,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1050.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K49" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J49)</f>
@@ -9431,7 +9431,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>400</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>80</v>
       </c>
       <c r="E50" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C50,D50,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C50,D50,PVRstr1_)</f>
         <v>62.8039549004394</v>
       </c>
       <c r="F50" s="9">
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C50,D50,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C50,D50,PVRstr1_)</f>
         <v>1.4032311292583468</v>
       </c>
       <c r="I50" s="2">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="J50" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K50" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J50)</f>
@@ -9473,7 +9473,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
         <v>420</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>80</v>
       </c>
       <c r="E51" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C51,D51,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C51,D51,PVRstr1_)</f>
         <v>62.761976383219647</v>
       </c>
       <c r="F51" s="9">
@@ -9490,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C51,D51,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C51,D51,PVRstr1_)</f>
         <v>1.4517824743738805</v>
       </c>
       <c r="I51" s="2">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="J51" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K51" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J51)</f>
@@ -9515,7 +9515,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>440</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>80</v>
       </c>
       <c r="E52" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C52,D52,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C52,D52,PVRstr1_)</f>
         <v>62.723085629320131</v>
       </c>
       <c r="F52" s="9">
@@ -9532,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C52,D52,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C52,D52,PVRstr1_)</f>
         <v>1.5012827064675198</v>
       </c>
       <c r="I52" s="2">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="J52" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K52" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J52)</f>
@@ -9557,7 +9557,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>460</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>80</v>
       </c>
       <c r="E53" s="8">
-        <f>[1]!MF_Qmix_m3day(Q_,fw_,C53,D53,PVRstr1_)</f>
+        <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C53,D53,PVRstr1_)</f>
         <v>62.686847730218247</v>
       </c>
       <c r="F53" s="9">
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C53,D53,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C53,D53,PVRstr1_)</f>
         <v>1.55176118962929</v>
       </c>
       <c r="I53" s="2">
@@ -9582,7 +9582,7 @@
       </c>
       <c r="J53" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="K53" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J53)</f>
@@ -9599,8 +9599,8 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="3:12" ht="18" x14ac:dyDescent="0.65">
+    <row r="54" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="3:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C97" s="10" t="str">
         <f t="shared" ref="C97:D106" si="1">C27</f>
         <v>P</v>
@@ -9622,7 +9622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9632,23 +9632,23 @@
         <v>80</v>
       </c>
       <c r="E98" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C98,D98,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C98,D98,PVRstr1_)</f>
         <v>4.0574822364230649E-2</v>
       </c>
       <c r="F98" s="7">
-        <f>[1]!PVT_Mug_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2105546241270334E-2</v>
       </c>
       <c r="G98" s="7">
-        <f>[1]!PVT_Muo_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.6590463605066925</v>
       </c>
       <c r="H98" s="7">
-        <f>[1]!PVT_Muw_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33586886209810729</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9658,23 +9658,23 @@
         <v>80</v>
       </c>
       <c r="E99" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C99,D99,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C99,D99,PVRstr1_)</f>
         <v>0.1893440087363846</v>
       </c>
       <c r="F99" s="7">
-        <f>[1]!PVT_Mug_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2152607093515563E-2</v>
       </c>
       <c r="G99" s="7">
-        <f>[1]!PVT_Muo_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4223996970828314</v>
       </c>
       <c r="H99" s="7">
-        <f>[1]!PVT_Muw_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3366698582445789</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9684,23 +9684,23 @@
         <v>80</v>
       </c>
       <c r="E100" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C100,D100,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C100,D100,PVRstr1_)</f>
         <v>0.34619325188466088</v>
       </c>
       <c r="F100" s="7">
-        <f>[1]!PVT_Mug_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2231437157962866E-2</v>
       </c>
       <c r="G100" s="7">
-        <f>[1]!PVT_Muo_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.1210920754921987</v>
       </c>
       <c r="H100" s="7">
-        <f>[1]!PVT_Muw_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33768124309210917</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="24">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -9710,23 +9710,23 @@
         <v>80</v>
       </c>
       <c r="E101" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C101,D101,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C101,D101,PVRstr1_)</f>
         <v>0.58039772610102403</v>
       </c>
       <c r="F101" s="7">
-        <f>[1]!PVT_Mug_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.242965872389205E-2</v>
       </c>
       <c r="G101" s="7">
-        <f>[1]!PVT_Muo_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.610680590953983</v>
       </c>
       <c r="H101" s="7">
-        <f>[1]!PVT_Muw_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.33973781166863876</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9736,23 +9736,23 @@
         <v>80</v>
       </c>
       <c r="E102" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C102,D102,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C102,D102,PVRstr1_)</f>
         <v>0.84192882109720135</v>
       </c>
       <c r="F102" s="7">
-        <f>[1]!PVT_Mug_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2940038915198142E-2</v>
       </c>
       <c r="G102" s="7">
-        <f>[1]!PVT_Muo_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9330998132345878</v>
       </c>
       <c r="H102" s="7">
-        <f>[1]!PVT_Muw_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34398614434757446</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C103" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9762,23 +9762,23 @@
         <v>80</v>
       </c>
       <c r="E103" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C103,D103,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C103,D103,PVRstr1_)</f>
         <v>0.95659985043074536</v>
       </c>
       <c r="F103" s="7">
-        <f>[1]!PVT_Mug_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3565718967699225E-2</v>
       </c>
       <c r="G103" s="7">
-        <f>[1]!PVT_Muo_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5288611204918676</v>
       </c>
       <c r="H103" s="7">
-        <f>[1]!PVT_Muw_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.34841473772767878</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C104" s="24">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9788,23 +9788,23 @@
         <v>80</v>
       </c>
       <c r="E104" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C104,D104,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C104,D104,PVRstr1_)</f>
         <v>1.0015398815906351</v>
       </c>
       <c r="F104" s="7">
-        <f>[1]!PVT_Mug_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.4281265311255864E-2</v>
       </c>
       <c r="G104" s="7">
-        <f>[1]!PVT_Muo_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2663335238575619</v>
       </c>
       <c r="H104" s="7">
-        <f>[1]!PVT_Muw_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.35302359180895171</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C105" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -9814,23 +9814,23 @@
         <v>80</v>
       </c>
       <c r="E105" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C105,D105,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C105,D105,PVRstr1_)</f>
         <v>1.0120226232560241</v>
       </c>
       <c r="F105" s="7">
-        <f>[1]!PVT_Mug_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5067188178231777E-2</v>
       </c>
       <c r="G105" s="7">
-        <f>[1]!PVT_Muo_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0835253821497086</v>
       </c>
       <c r="H105" s="7">
-        <f>[1]!PVT_Muw_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3578127065913933</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C106" s="24">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -9840,23 +9840,23 @@
         <v>80</v>
       </c>
       <c r="E106" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C106,D106,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C106,D106,PVRstr1_)</f>
         <v>1.0052527197285539</v>
       </c>
       <c r="F106" s="7">
-        <f>[1]!PVT_Mug_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5906881569035945E-2</v>
       </c>
       <c r="G106" s="7">
-        <f>[1]!PVT_Muo_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0151892569483763</v>
       </c>
       <c r="H106" s="7">
-        <f>[1]!PVT_Muw_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36278208207500345</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C107" s="24">
         <f t="shared" ref="C107:D116" si="2">C37</f>
         <v>140</v>
@@ -9866,23 +9866,23 @@
         <v>80</v>
       </c>
       <c r="E107" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C107,D107,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C107,D107,PVRstr1_)</f>
         <v>0.99003395359584967</v>
       </c>
       <c r="F107" s="7">
-        <f>[1]!PVT_Mug_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.6786635470529682E-2</v>
       </c>
       <c r="G107" s="7">
-        <f>[1]!PVT_Muo_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.0545227206187542</v>
       </c>
       <c r="H107" s="7">
-        <f>[1]!PVT_Muw_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.36793171825978227</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C108" s="24">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -9892,23 +9892,23 @@
         <v>80</v>
       </c>
       <c r="E108" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C108,D108,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C108,D108,PVRstr1_)</f>
         <v>0.97098242916736133</v>
       </c>
       <c r="F108" s="7">
-        <f>[1]!PVT_Mug_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7696649218225117E-2</v>
       </c>
       <c r="G108" s="7">
-        <f>[1]!PVT_Muo_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.099793905122219</v>
       </c>
       <c r="H108" s="7">
-        <f>[1]!PVT_Muw_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.3732616151457297</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C109" s="24">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -9918,23 +9918,23 @@
         <v>80</v>
       </c>
       <c r="E109" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C109,D109,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C109,D109,PVRstr1_)</f>
         <v>0.98793912415201102</v>
       </c>
       <c r="F109" s="7">
-        <f>[1]!PVT_Mug_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8632637091865627E-2</v>
       </c>
       <c r="G109" s="7">
-        <f>[1]!PVT_Muo_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.1504276850441697</v>
       </c>
       <c r="H109" s="7">
-        <f>[1]!PVT_Muw_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.37877177273284574</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C110" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9944,23 +9944,23 @@
         <v>80</v>
       </c>
       <c r="E110" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C110,D110,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C110,D110,PVRstr1_)</f>
         <v>1.0140076087362149</v>
       </c>
       <c r="F110" s="7">
-        <f>[1]!PVT_Mug_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.959793520234334E-2</v>
       </c>
       <c r="G110" s="7">
-        <f>[1]!PVT_Muo_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2059613222382559</v>
       </c>
       <c r="H110" s="7">
-        <f>[1]!PVT_Muw_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.38446219102113038</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C111" s="24">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -9970,23 +9970,23 @@
         <v>80</v>
       </c>
       <c r="E111" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C111,D111,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C111,D111,PVRstr1_)</f>
         <v>1.0427522794318631</v>
       </c>
       <c r="F111" s="7">
-        <f>[1]!PVT_Mug_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.0606043940918212E-2</v>
       </c>
       <c r="G111" s="7">
-        <f>[1]!PVT_Muo_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2659985356650543</v>
       </c>
       <c r="H111" s="7">
-        <f>[1]!PVT_Muw_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39033287001058364</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C112" s="24">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -9996,26 +9996,26 @@
         <v>80</v>
       </c>
       <c r="E112" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C112,D112,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C112,D112,PVRstr1_)</f>
         <v>1.0740125122644342</v>
       </c>
       <c r="F112" s="7">
-        <f>[1]!PVT_Mug_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.1683383160038823E-2</v>
       </c>
       <c r="G112" s="7">
-        <f>[1]!PVT_Muo_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3301802347454754</v>
       </c>
       <c r="H112" s="7">
-        <f>[1]!PVT_Muw_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.39638380970120551</v>
       </c>
       <c r="L112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C113" s="24">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -10025,23 +10025,23 @@
         <v>80</v>
       </c>
       <c r="E113" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C113,D113,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C113,D113,PVRstr1_)</f>
         <v>1.1076729021604708</v>
       </c>
       <c r="F113" s="7">
-        <f>[1]!PVT_Mug_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.2871605188958734E-2</v>
       </c>
       <c r="G113" s="7">
-        <f>[1]!PVT_Muo_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.398165420235213</v>
       </c>
       <c r="H113" s="7">
-        <f>[1]!PVT_Muw_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.40261501009299605</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C114" s="24">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -10051,23 +10051,23 @@
         <v>80</v>
       </c>
       <c r="E114" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C114,D114,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C114,D114,PVRstr1_)</f>
         <v>1.1436545591427978</v>
       </c>
       <c r="F114" s="7">
-        <f>[1]!PVT_Mug_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.422784902336915E-2</v>
       </c>
       <c r="G114" s="7">
-        <f>[1]!PVT_Muo_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.469618644016115</v>
       </c>
       <c r="H114" s="7">
-        <f>[1]!PVT_Muw_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4090264711859552</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C115" s="24">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -10077,23 +10077,23 @@
         <v>80</v>
       </c>
       <c r="E115" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C115,D115,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C115,D115,PVRstr1_)</f>
         <v>1.181903418610887</v>
       </c>
       <c r="F115" s="7">
-        <f>[1]!PVT_Mug_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.5819443725453597E-2</v>
       </c>
       <c r="G115" s="7">
-        <f>[1]!PVT_Muo_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5442019106882179</v>
       </c>
       <c r="H115" s="7">
-        <f>[1]!PVT_Muw_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4156181929800829</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C116" s="24">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10103,23 +10103,23 @@
         <v>80</v>
       </c>
       <c r="E116" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C116,D116,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C116,D116,PVRstr1_)</f>
         <v>1.2223685247043523</v>
       </c>
       <c r="F116" s="7">
-        <f>[1]!PVT_Mug_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.7706850757567025E-2</v>
       </c>
       <c r="G116" s="7">
-        <f>[1]!PVT_Muo_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.6215697162604081</v>
       </c>
       <c r="H116" s="7">
-        <f>[1]!PVT_Muw_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42239017547537927</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C117" s="24">
         <f t="shared" ref="C117:D123" si="3">C47</f>
         <v>340</v>
@@ -10129,23 +10129,23 @@
         <v>80</v>
       </c>
       <c r="E117" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C117,D117,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C117,D117,PVRstr1_)</f>
         <v>1.2649628676068878</v>
       </c>
       <c r="F117" s="7">
-        <f>[1]!PVT_Mug_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.9907947532178368E-2</v>
       </c>
       <c r="G117" s="7">
-        <f>[1]!PVT_Muo_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7013663805803496</v>
       </c>
       <c r="H117" s="7">
-        <f>[1]!PVT_Muw_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.42934241867184425</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C118" s="24">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10155,23 +10155,23 @@
         <v>80</v>
       </c>
       <c r="E118" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C118,D118,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C118,D118,PVRstr1_)</f>
         <v>1.3095105811563781</v>
       </c>
       <c r="F118" s="7">
-        <f>[1]!PVT_Mug_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.234779767218704E-2</v>
       </c>
       <c r="G118" s="7">
-        <f>[1]!PVT_Muo_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7832251010232323</v>
       </c>
       <c r="H118" s="7">
-        <f>[1]!PVT_Muw_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4364749225694779</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C119" s="24">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -10181,23 +10181,23 @@
         <v>80</v>
       </c>
       <c r="E119" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C119,D119,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C119,D119,PVRstr1_)</f>
         <v>1.3557177604113138</v>
       </c>
       <c r="F119" s="7">
-        <f>[1]!PVT_Mug_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4831394992291626E-2</v>
       </c>
       <c r="G119" s="7">
-        <f>[1]!PVT_Muo_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8667683185510673</v>
       </c>
       <c r="H119" s="7">
-        <f>[1]!PVT_Muw_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.4437876871682801</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C120" s="24">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -10207,23 +10207,23 @@
         <v>80</v>
       </c>
       <c r="E120" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C120,D120,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C120,D120,PVRstr1_)</f>
         <v>1.4032311292583468</v>
       </c>
       <c r="F120" s="7">
-        <f>[1]!PVT_Mug_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.7103767854624728E-2</v>
       </c>
       <c r="G120" s="7">
-        <f>[1]!PVT_Muo_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.9516090887099746</v>
       </c>
       <c r="H120" s="7">
-        <f>[1]!PVT_Muw_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45128071246825097</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C121" s="24">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -10233,23 +10233,23 @@
         <v>80</v>
       </c>
       <c r="E121" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C121,D121,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C121,D121,PVRstr1_)</f>
         <v>1.4517824743738805</v>
       </c>
       <c r="F121" s="7">
-        <f>[1]!PVT_Mug_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.8995470709754662E-2</v>
       </c>
       <c r="G121" s="7">
-        <f>[1]!PVT_Muo_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.0373532149446416</v>
       </c>
       <c r="H121" s="7">
-        <f>[1]!PVT_Muw_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.45895399846939039</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C122" s="24">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -10259,23 +10259,23 @@
         <v>80</v>
       </c>
       <c r="E122" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C122,D122,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C122,D122,PVRstr1_)</f>
         <v>1.5012827064675198</v>
       </c>
       <c r="F122" s="7">
-        <f>[1]!PVT_Mug_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.0517403578276795E-2</v>
       </c>
       <c r="G122" s="7">
-        <f>[1]!PVT_Muo_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.1236019446382008</v>
       </c>
       <c r="H122" s="7">
-        <f>[1]!PVT_Muw_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.46680754517169848</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C123" s="24">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -10285,19 +10285,19 @@
         <v>80</v>
       </c>
       <c r="E123" s="6">
-        <f>[1]!MF_Mumix_cP(Q_,fw_,C123,D123,PVRstr1_)</f>
+        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C123,D123,PVRstr1_)</f>
         <v>1.55176118962929</v>
       </c>
       <c r="F123" s="7">
-        <f>[1]!PVT_Mug_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_Mu_gas_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.1800659307069124E-2</v>
       </c>
       <c r="G123" s="7">
-        <f>[1]!PVT_Muo_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_oil_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.2099550584076959</v>
       </c>
       <c r="H123" s="7">
-        <f>[1]!PVT_Muw_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_wat_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>0.47484135257517518</v>
       </c>
       <c r="L123" s="3"/>

--- a/excercises/excercises/30.MF_gas_fraction.xlsx
+++ b/excercises/excercises/30.MF_gas_fraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF98993-285B-4921-80B5-9EED98561AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D0949-085E-4CC7-933B-109BA43D1ABA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="2340" windowWidth="21930" windowHeight="17160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -1042,82 +1042,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>4391.5120376224659</c:v>
+                  <c:v>4384.9208944046532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>904.20035238917603</c:v>
+                  <c:v>895.5314731893435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>467.27921635167581</c:v>
+                  <c:v>457.52196291848088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.5154013622934</c:v>
+                  <c:v>237.5580099728102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.62214237537529</c:v>
+                  <c:v>127.34291705604421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.11632695985338</c:v>
+                  <c:v>90.958116918328031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.013551683221934</c:v>
+                  <c:v>73.12514975280493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.256519686875777</c:v>
+                  <c:v>62.692214211851287</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>71.148924372690871</c:v>
+                  <c:v>58.269218872505917</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.107888431840408</c:v>
+                  <c:v>58.038784522428081</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.347327650204249</c:v>
+                  <c:v>57.865737604210572</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63.79022169769771</c:v>
+                  <c:v>57.730681702592605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.615272837447684</c:v>
+                  <c:v>57.622048291566145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.47169311272107</c:v>
+                  <c:v>57.532509801114017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.351497011416718</c:v>
+                  <c:v>57.457199417122197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63.249180789225058</c:v>
+                  <c:v>57.392758133860504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.160827885766231</c:v>
+                  <c:v>57.336792811510968</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63.083575267779999</c:v>
+                  <c:v>57.287552299882812</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.015281518048091</c:v>
+                  <c:v>57.243725693607857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.954312965509921</c:v>
+                  <c:v>57.204312165753265</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.899401620941084</c:v>
+                  <c:v>57.16853440584341</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.849548282725522</c:v>
+                  <c:v>57.135779522015703</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.8039549004394</c:v>
+                  <c:v>57.105557751918354</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.761976383219647</c:v>
+                  <c:v>57.077473020828108</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.723085629320131</c:v>
+                  <c:v>57.051201562088984</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62.686847730218247</c:v>
+                  <c:v>57.026476136572974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,37 +1674,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98793270966165647</c:v>
+                  <c:v>0.98817453533504207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94125151110898642</c:v>
+                  <c:v>0.94196376758249556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88590427083134249</c:v>
+                  <c:v>0.88600123515272744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78364910048452585</c:v>
+                  <c:v>0.7786362008092611</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60729384514719098</c:v>
+                  <c:v>0.57902391262069741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4616900660023206</c:v>
+                  <c:v>0.39765311202477677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34051027000932615</c:v>
+                  <c:v>0.23287328869101942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23855116801020473</c:v>
+                  <c:v>8.2581289136215014E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15159744052920571</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6343027915348305E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0279407154448812E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2304,82 +2304,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>4.0574822364230649E-2</c:v>
+                  <c:v>3.9508837527251026E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1893440087363846</c:v>
+                  <c:v>0.18157827576436122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34619325188466088</c:v>
+                  <c:v>0.325857291127499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58039772610102403</c:v>
+                  <c:v>0.53142522047317331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84192882109720135</c:v>
+                  <c:v>0.75498051455463777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95659985043074536</c:v>
+                  <c:v>0.86227255664952251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0015398815906351</c:v>
+                  <c:v>0.91812671879494301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0120226232560241</c:v>
+                  <c:v>0.94832891380180462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0052527197285539</c:v>
+                  <c:v>0.97353289568835177</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99003395359584967</c:v>
+                  <c:v>1.010519545543191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97098242916736133</c:v>
+                  <c:v>1.0530067961645928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98793912415201102</c:v>
+                  <c:v>1.1004514219075594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0140076087362149</c:v>
+                  <c:v>1.1524269964330116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0427522794318631</c:v>
+                  <c:v>1.2085814684237663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0740125122644342</c:v>
+                  <c:v>1.2686117082598487</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1076729021604708</c:v>
+                  <c:v>1.3322475954904465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1436545591427978</c:v>
+                  <c:v>1.3992403776034839</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.181903418610887</c:v>
+                  <c:v>1.46934971037581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2223685247043523</c:v>
+                  <c:v>1.5423218974058981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2649628676068878</c:v>
+                  <c:v>1.6178516192848016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3095105811563781</c:v>
+                  <c:v>1.695530752708913</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3557177604113138</c:v>
+                  <c:v>1.7748213807568383</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4032311292583468</c:v>
+                  <c:v>1.8551170932673062</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4517824743738805</c:v>
+                  <c:v>1.9358903786391266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5012827064675198</c:v>
+                  <c:v>2.0167898633610855</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.55176118962929</c:v>
+                  <c:v>2.0975829431865414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,19 +2927,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>20.8740234375</c:v>
+                  <c:v>21.0205078125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.5009765625</c:v>
+                  <c:v>53.155517578125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.98095703125</c:v>
+                  <c:v>74.89013671875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.44970703125</c:v>
+                  <c:v>123.1201171875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167.724609375</c:v>
+                  <c:v>192.7734375</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>300</c:v>
@@ -3147,37 +3147,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>8.69293212890625</c:v>
+                  <c:v>8.31298828125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.62939453125</c:v>
+                  <c:v>29.901123046875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.437255859375</c:v>
+                  <c:v>47.882080078125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.3916015625</c:v>
+                  <c:v>67.529296875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.361328125</c:v>
+                  <c:v>85.25390625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.888671875</c:v>
+                  <c:v>108.0322265625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.52294921875</c:v>
+                  <c:v>126.416015625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.9375</c:v>
+                  <c:v>141.796875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150.5859375</c:v>
+                  <c:v>159.7412109375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>174.90234375</c:v>
+                  <c:v>206.54296875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>237.890625</c:v>
+                  <c:v>294.140625</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>300</c:v>
@@ -3367,82 +3367,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.167724609375</c:v>
+                  <c:v>2.941131591796875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.421630859375</c:v>
+                  <c:v>12.982177734375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.64599609375</c:v>
+                  <c:v>23.32763671875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.5224609375</c:v>
+                  <c:v>33.6181640625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.81298828125</c:v>
+                  <c:v>43.359375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.5908203125</c:v>
+                  <c:v>52.62451171875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.892578125</c:v>
+                  <c:v>61.5234375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.7548828125</c:v>
+                  <c:v>69.98291015625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.03125</c:v>
+                  <c:v>78.0029296875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89.68505859375</c:v>
+                  <c:v>85.546875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96.6796875</c:v>
+                  <c:v>93.6767578125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103.125</c:v>
+                  <c:v>102.0263671875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>108.9111328125</c:v>
+                  <c:v>109.423828125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>114.1845703125</c:v>
+                  <c:v>116.015625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119.05517578125</c:v>
+                  <c:v>122.021484375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>123.5595703125</c:v>
+                  <c:v>127.5146484375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>127.77099609375</c:v>
+                  <c:v>132.71484375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>132.12890625</c:v>
+                  <c:v>137.7685546875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>136.81640625</c:v>
+                  <c:v>142.822265625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.50390625</c:v>
+                  <c:v>148.095703125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>146.4111328125</c:v>
+                  <c:v>154.1015625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>151.6845703125</c:v>
+                  <c:v>161.42578125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157.763671875</c:v>
+                  <c:v>171.6796875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>165.8203125</c:v>
+                  <c:v>188.671875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>177.83203125</c:v>
+                  <c:v>211.23046875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>196.2890625</c:v>
+                  <c:v>237.3046875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4557,82 +4557,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>4.0574822364230649E-2</c:v>
+                  <c:v>3.9508837527251026E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1893440087363846</c:v>
+                  <c:v>0.18157827576436122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34619325188466088</c:v>
+                  <c:v>0.325857291127499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58039772610102403</c:v>
+                  <c:v>0.53142522047317331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84192882109720135</c:v>
+                  <c:v>0.75498051455463777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95659985043074536</c:v>
+                  <c:v>0.86227255664952251</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0015398815906351</c:v>
+                  <c:v>0.91812671879494301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0120226232560241</c:v>
+                  <c:v>0.94832891380180462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0052527197285539</c:v>
+                  <c:v>0.97353289568835177</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99003395359584967</c:v>
+                  <c:v>1.010519545543191</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.97098242916736133</c:v>
+                  <c:v>1.0530067961645928</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98793912415201102</c:v>
+                  <c:v>1.1004514219075594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0140076087362149</c:v>
+                  <c:v>1.1524269964330116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0427522794318631</c:v>
+                  <c:v>1.2085814684237663</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0740125122644342</c:v>
+                  <c:v>1.2686117082598487</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1076729021604708</c:v>
+                  <c:v>1.3322475954904465</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1436545591427978</c:v>
+                  <c:v>1.3992403776034839</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.181903418610887</c:v>
+                  <c:v>1.46934971037581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2223685247043523</c:v>
+                  <c:v>1.5423218974058981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2649628676068878</c:v>
+                  <c:v>1.6178516192848016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3095105811563781</c:v>
+                  <c:v>1.695530752708913</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3557177604113138</c:v>
+                  <c:v>1.7748213807568383</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4032311292583468</c:v>
+                  <c:v>1.8551170932673062</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4517824743738805</c:v>
+                  <c:v>1.9358903786391266</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5012827064675198</c:v>
+                  <c:v>2.0167898633610855</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.55176118962929</c:v>
+                  <c:v>2.0975829431865414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7606,11 +7606,11 @@
     <definedNames>
       <definedName name="getUFVersion"/>
       <definedName name="MF_gas_fraction_d"/>
-      <definedName name="MF_Mu_mix_cP"/>
+      <definedName name="MF_mu_mix_cP"/>
       <definedName name="MF_p_gas_fraction_atma"/>
       <definedName name="MF_q_mix_rc_m3day"/>
-      <definedName name="PVT_encode_string"/>
-      <definedName name="PVT_Mu_gas_cP"/>
+      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_mu_gas_cP"/>
       <definedName name="PVT_mu_oil_cP"/>
       <definedName name="PVT_mu_wat_cP"/>
     </definedNames>
@@ -8211,7 +8211,7 @@
   <dimension ref="A1:AB123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8431,8 +8431,8 @@
         <v>19</v>
       </c>
       <c r="C20" s="24" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -8517,34 +8517,34 @@
       </c>
       <c r="E28" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C28,D28,PVRstr1_)</f>
-        <v>4391.5120376224659</v>
+        <v>4384.9208944046532</v>
       </c>
       <c r="F28" s="9">
         <f>[1]!MF_gas_fraction_d(C28,D28,fw_,PVRstr1_)</f>
-        <v>0.98793270966165647</v>
+        <v>0.98817453533504207</v>
       </c>
       <c r="G28" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C28,D28,PVRstr1_)</f>
-        <v>4.0574822364230649E-2</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C28,D28,PVRstr1_)</f>
+        <v>3.9508837527251026E-2</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
       <c r="J28" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J28)</f>
-        <v>20.8740234375</v>
+        <v>21.0205078125</v>
       </c>
       <c r="L28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J28)</f>
-        <v>8.69293212890625</v>
+        <v>8.31298828125</v>
       </c>
       <c r="M28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J28)</f>
-        <v>3.167724609375</v>
+        <v>2.941131591796875</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -8559,34 +8559,34 @@
       </c>
       <c r="E29" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C29,D29,PVRstr1_)</f>
-        <v>904.20035238917603</v>
+        <v>895.5314731893435</v>
       </c>
       <c r="F29" s="9">
         <f>[1]!MF_gas_fraction_d(C29,D29,fw_,PVRstr1_)</f>
-        <v>0.94125151110898642</v>
+        <v>0.94196376758249556</v>
       </c>
       <c r="G29" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C29,D29,PVRstr1_)</f>
-        <v>0.1893440087363846</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C29,D29,PVRstr1_)</f>
+        <v>0.18157827576436122</v>
       </c>
       <c r="I29" s="2">
         <v>50</v>
       </c>
       <c r="J29" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J29)</f>
-        <v>63.5009765625</v>
+        <v>53.155517578125</v>
       </c>
       <c r="L29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J29)</f>
-        <v>32.62939453125</v>
+        <v>29.901123046875</v>
       </c>
       <c r="M29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J29)</f>
-        <v>13.421630859375</v>
+        <v>12.982177734375</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -8601,34 +8601,34 @@
       </c>
       <c r="E30" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C30,D30,PVRstr1_)</f>
-        <v>467.27921635167581</v>
+        <v>457.52196291848088</v>
       </c>
       <c r="F30" s="9">
         <f>[1]!MF_gas_fraction_d(C30,D30,fw_,PVRstr1_)</f>
-        <v>0.88590427083134249</v>
+        <v>0.88600123515272744</v>
       </c>
       <c r="G30" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C30,D30,PVRstr1_)</f>
-        <v>0.34619325188466088</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C30,D30,PVRstr1_)</f>
+        <v>0.325857291127499</v>
       </c>
       <c r="I30" s="2">
         <v>100</v>
       </c>
       <c r="J30" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J30)</f>
-        <v>92.98095703125</v>
+        <v>74.89013671875</v>
       </c>
       <c r="L30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J30)</f>
-        <v>54.437255859375</v>
+        <v>47.882080078125</v>
       </c>
       <c r="M30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J30)</f>
-        <v>24.64599609375</v>
+        <v>23.32763671875</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -8643,34 +8643,34 @@
       </c>
       <c r="E31" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C31,D31,PVRstr1_)</f>
-        <v>248.5154013622934</v>
+        <v>237.5580099728102</v>
       </c>
       <c r="F31" s="9">
         <f>[1]!MF_gas_fraction_d(C31,D31,fw_,PVRstr1_)</f>
-        <v>0.78364910048452585</v>
+        <v>0.7786362008092611</v>
       </c>
       <c r="G31" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C31,D31,PVRstr1_)</f>
-        <v>0.58039772610102403</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C31,D31,PVRstr1_)</f>
+        <v>0.53142522047317331</v>
       </c>
       <c r="I31" s="2">
         <v>150</v>
       </c>
       <c r="J31" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J31)</f>
-        <v>123.44970703125</v>
+        <v>123.1201171875</v>
       </c>
       <c r="L31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J31)</f>
-        <v>76.3916015625</v>
+        <v>67.529296875</v>
       </c>
       <c r="M31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J31)</f>
-        <v>35.5224609375</v>
+        <v>33.6181640625</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -8685,34 +8685,34 @@
       </c>
       <c r="E32" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C32,D32,PVRstr1_)</f>
-        <v>139.62214237537529</v>
+        <v>127.34291705604421</v>
       </c>
       <c r="F32" s="9">
         <f>[1]!MF_gas_fraction_d(C32,D32,fw_,PVRstr1_)</f>
-        <v>0.60729384514719098</v>
+        <v>0.57902391262069741</v>
       </c>
       <c r="G32" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C32,D32,PVRstr1_)</f>
-        <v>0.84192882109720135</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C32,D32,PVRstr1_)</f>
+        <v>0.75498051455463777</v>
       </c>
       <c r="I32" s="2">
         <v>200</v>
       </c>
       <c r="J32" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J32)</f>
-        <v>167.724609375</v>
+        <v>192.7734375</v>
       </c>
       <c r="L32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J32)</f>
-        <v>95.361328125</v>
+        <v>85.25390625</v>
       </c>
       <c r="M32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J32)</f>
-        <v>45.81298828125</v>
+        <v>43.359375</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -8727,22 +8727,22 @@
       </c>
       <c r="E33" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C33,D33,PVRstr1_)</f>
-        <v>104.11632695985338</v>
+        <v>90.958116918328031</v>
       </c>
       <c r="F33" s="9">
         <f>[1]!MF_gas_fraction_d(C33,D33,fw_,PVRstr1_)</f>
-        <v>0.4616900660023206</v>
+        <v>0.39765311202477677</v>
       </c>
       <c r="G33" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C33,D33,PVRstr1_)</f>
-        <v>0.95659985043074536</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C33,D33,PVRstr1_)</f>
+        <v>0.86227255664952251</v>
       </c>
       <c r="I33" s="2">
         <v>250</v>
       </c>
       <c r="J33" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J33)</f>
@@ -8750,11 +8750,11 @@
       </c>
       <c r="L33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J33)</f>
-        <v>110.888671875</v>
+        <v>108.0322265625</v>
       </c>
       <c r="M33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J33)</f>
-        <v>55.5908203125</v>
+        <v>52.62451171875</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -8769,22 +8769,22 @@
       </c>
       <c r="E34" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C34,D34,PVRstr1_)</f>
-        <v>87.013551683221934</v>
+        <v>73.12514975280493</v>
       </c>
       <c r="F34" s="9">
         <f>[1]!MF_gas_fraction_d(C34,D34,fw_,PVRstr1_)</f>
-        <v>0.34051027000932615</v>
+        <v>0.23287328869101942</v>
       </c>
       <c r="G34" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C34,D34,PVRstr1_)</f>
-        <v>1.0015398815906351</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C34,D34,PVRstr1_)</f>
+        <v>0.91812671879494301</v>
       </c>
       <c r="I34" s="2">
         <v>300</v>
       </c>
       <c r="J34" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J34)</f>
@@ -8792,11 +8792,11 @@
       </c>
       <c r="L34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J34)</f>
-        <v>123.52294921875</v>
+        <v>126.416015625</v>
       </c>
       <c r="M34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J34)</f>
-        <v>64.892578125</v>
+        <v>61.5234375</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -8811,22 +8811,22 @@
       </c>
       <c r="E35" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C35,D35,PVRstr1_)</f>
-        <v>77.256519686875777</v>
+        <v>62.692214211851287</v>
       </c>
       <c r="F35" s="9">
         <f>[1]!MF_gas_fraction_d(C35,D35,fw_,PVRstr1_)</f>
-        <v>0.23855116801020473</v>
+        <v>8.2581289136215014E-2</v>
       </c>
       <c r="G35" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C35,D35,PVRstr1_)</f>
-        <v>1.0120226232560241</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C35,D35,PVRstr1_)</f>
+        <v>0.94832891380180462</v>
       </c>
       <c r="I35" s="2">
         <v>350</v>
       </c>
       <c r="J35" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J35)</f>
@@ -8834,11 +8834,11 @@
       </c>
       <c r="L35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J35)</f>
-        <v>135.9375</v>
+        <v>141.796875</v>
       </c>
       <c r="M35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J35)</f>
-        <v>73.7548828125</v>
+        <v>69.98291015625</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="E36" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C36,D36,PVRstr1_)</f>
-        <v>71.148924372690871</v>
+        <v>58.269218872505917</v>
       </c>
       <c r="F36" s="9">
         <f>[1]!MF_gas_fraction_d(C36,D36,fw_,PVRstr1_)</f>
-        <v>0.15159744052920571</v>
+        <v>0</v>
       </c>
       <c r="G36" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C36,D36,PVRstr1_)</f>
-        <v>1.0052527197285539</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C36,D36,PVRstr1_)</f>
+        <v>0.97353289568835177</v>
       </c>
       <c r="I36" s="2">
         <v>400</v>
       </c>
       <c r="J36" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J36)</f>
@@ -8876,11 +8876,11 @@
       </c>
       <c r="L36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J36)</f>
-        <v>150.5859375</v>
+        <v>159.7412109375</v>
       </c>
       <c r="M36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J36)</f>
-        <v>82.03125</v>
+        <v>78.0029296875</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -8895,22 +8895,22 @@
       </c>
       <c r="E37" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C37,D37,PVRstr1_)</f>
-        <v>67.107888431840408</v>
+        <v>58.038784522428081</v>
       </c>
       <c r="F37" s="9">
         <f>[1]!MF_gas_fraction_d(C37,D37,fw_,PVRstr1_)</f>
-        <v>7.6343027915348305E-2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C37,D37,PVRstr1_)</f>
-        <v>0.99003395359584967</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C37,D37,PVRstr1_)</f>
+        <v>1.010519545543191</v>
       </c>
       <c r="I37" s="2">
         <v>450</v>
       </c>
       <c r="J37" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J37)</f>
@@ -8918,11 +8918,11 @@
       </c>
       <c r="L37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J37)</f>
-        <v>174.90234375</v>
+        <v>206.54296875</v>
       </c>
       <c r="M37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J37)</f>
-        <v>89.68505859375</v>
+        <v>85.546875</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -8937,22 +8937,22 @@
       </c>
       <c r="E38" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C38,D38,PVRstr1_)</f>
-        <v>64.347327650204249</v>
+        <v>57.865737604210572</v>
       </c>
       <c r="F38" s="9">
         <f>[1]!MF_gas_fraction_d(C38,D38,fw_,PVRstr1_)</f>
-        <v>1.0279407154448812E-2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C38,D38,PVRstr1_)</f>
-        <v>0.97098242916736133</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C38,D38,PVRstr1_)</f>
+        <v>1.0530067961645928</v>
       </c>
       <c r="I38" s="2">
         <v>500</v>
       </c>
       <c r="J38" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J38)</f>
@@ -8960,11 +8960,11 @@
       </c>
       <c r="L38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J38)</f>
-        <v>237.890625</v>
+        <v>294.140625</v>
       </c>
       <c r="M38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J38)</f>
-        <v>96.6796875</v>
+        <v>93.6767578125</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -8979,22 +8979,22 @@
       </c>
       <c r="E39" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C39,D39,PVRstr1_)</f>
-        <v>63.79022169769771</v>
+        <v>57.730681702592605</v>
       </c>
       <c r="F39" s="9">
         <f>[1]!MF_gas_fraction_d(C39,D39,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G39" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C39,D39,PVRstr1_)</f>
-        <v>0.98793912415201102</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C39,D39,PVRstr1_)</f>
+        <v>1.1004514219075594</v>
       </c>
       <c r="I39" s="2">
         <v>550</v>
       </c>
       <c r="J39" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K39" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J39)</f>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="M39" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J39)</f>
-        <v>103.125</v>
+        <v>102.0263671875</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -9021,22 +9021,22 @@
       </c>
       <c r="E40" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C40,D40,PVRstr1_)</f>
-        <v>63.615272837447684</v>
+        <v>57.622048291566145</v>
       </c>
       <c r="F40" s="9">
         <f>[1]!MF_gas_fraction_d(C40,D40,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G40" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C40,D40,PVRstr1_)</f>
-        <v>1.0140076087362149</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C40,D40,PVRstr1_)</f>
+        <v>1.1524269964330116</v>
       </c>
       <c r="I40" s="2">
         <v>600</v>
       </c>
       <c r="J40" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K40" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J40)</f>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="M40" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J40)</f>
-        <v>108.9111328125</v>
+        <v>109.423828125</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -9063,22 +9063,22 @@
       </c>
       <c r="E41" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C41,D41,PVRstr1_)</f>
-        <v>63.47169311272107</v>
+        <v>57.532509801114017</v>
       </c>
       <c r="F41" s="9">
         <f>[1]!MF_gas_fraction_d(C41,D41,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G41" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C41,D41,PVRstr1_)</f>
-        <v>1.0427522794318631</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C41,D41,PVRstr1_)</f>
+        <v>1.2085814684237663</v>
       </c>
       <c r="I41" s="2">
         <v>650</v>
       </c>
       <c r="J41" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K41" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J41)</f>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="M41" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J41)</f>
-        <v>114.1845703125</v>
+        <v>116.015625</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -9105,22 +9105,22 @@
       </c>
       <c r="E42" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C42,D42,PVRstr1_)</f>
-        <v>63.351497011416718</v>
+        <v>57.457199417122197</v>
       </c>
       <c r="F42" s="9">
         <f>[1]!MF_gas_fraction_d(C42,D42,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G42" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C42,D42,PVRstr1_)</f>
-        <v>1.0740125122644342</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C42,D42,PVRstr1_)</f>
+        <v>1.2686117082598487</v>
       </c>
       <c r="I42" s="2">
         <v>700</v>
       </c>
       <c r="J42" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K42" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J42)</f>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="M42" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J42)</f>
-        <v>119.05517578125</v>
+        <v>122.021484375</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -9147,22 +9147,22 @@
       </c>
       <c r="E43" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C43,D43,PVRstr1_)</f>
-        <v>63.249180789225058</v>
+        <v>57.392758133860504</v>
       </c>
       <c r="F43" s="9">
         <f>[1]!MF_gas_fraction_d(C43,D43,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G43" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C43,D43,PVRstr1_)</f>
-        <v>1.1076729021604708</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C43,D43,PVRstr1_)</f>
+        <v>1.3322475954904465</v>
       </c>
       <c r="I43" s="2">
         <v>750</v>
       </c>
       <c r="J43" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K43" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J43)</f>
@@ -9174,7 +9174,7 @@
       </c>
       <c r="M43" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J43)</f>
-        <v>123.5595703125</v>
+        <v>127.5146484375</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
@@ -9189,22 +9189,22 @@
       </c>
       <c r="E44" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C44,D44,PVRstr1_)</f>
-        <v>63.160827885766231</v>
+        <v>57.336792811510968</v>
       </c>
       <c r="F44" s="9">
         <f>[1]!MF_gas_fraction_d(C44,D44,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G44" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C44,D44,PVRstr1_)</f>
-        <v>1.1436545591427978</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C44,D44,PVRstr1_)</f>
+        <v>1.3992403776034839</v>
       </c>
       <c r="I44" s="2">
         <v>800</v>
       </c>
       <c r="J44" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K44" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J44)</f>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="M44" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J44)</f>
-        <v>127.77099609375</v>
+        <v>132.71484375</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -9231,22 +9231,22 @@
       </c>
       <c r="E45" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C45,D45,PVRstr1_)</f>
-        <v>63.083575267779999</v>
+        <v>57.287552299882812</v>
       </c>
       <c r="F45" s="9">
         <f>[1]!MF_gas_fraction_d(C45,D45,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G45" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C45,D45,PVRstr1_)</f>
-        <v>1.181903418610887</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C45,D45,PVRstr1_)</f>
+        <v>1.46934971037581</v>
       </c>
       <c r="I45" s="2">
         <v>850</v>
       </c>
       <c r="J45" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K45" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J45)</f>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="M45" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J45)</f>
-        <v>132.12890625</v>
+        <v>137.7685546875</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -9273,22 +9273,22 @@
       </c>
       <c r="E46" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C46,D46,PVRstr1_)</f>
-        <v>63.015281518048091</v>
+        <v>57.243725693607857</v>
       </c>
       <c r="F46" s="9">
         <f>[1]!MF_gas_fraction_d(C46,D46,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G46" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C46,D46,PVRstr1_)</f>
-        <v>1.2223685247043523</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C46,D46,PVRstr1_)</f>
+        <v>1.5423218974058981</v>
       </c>
       <c r="I46" s="2">
         <v>900</v>
       </c>
       <c r="J46" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K46" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J46)</f>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="M46" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J46)</f>
-        <v>136.81640625</v>
+        <v>142.822265625</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -9315,22 +9315,22 @@
       </c>
       <c r="E47" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C47,D47,PVRstr1_)</f>
-        <v>62.954312965509921</v>
+        <v>57.204312165753265</v>
       </c>
       <c r="F47" s="9">
         <f>[1]!MF_gas_fraction_d(C47,D47,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G47" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C47,D47,PVRstr1_)</f>
-        <v>1.2649628676068878</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C47,D47,PVRstr1_)</f>
+        <v>1.6178516192848016</v>
       </c>
       <c r="I47" s="2">
         <v>950</v>
       </c>
       <c r="J47" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K47" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J47)</f>
@@ -9342,7 +9342,7 @@
       </c>
       <c r="M47" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J47)</f>
-        <v>141.50390625</v>
+        <v>148.095703125</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -9357,22 +9357,22 @@
       </c>
       <c r="E48" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C48,D48,PVRstr1_)</f>
-        <v>62.899401620941084</v>
+        <v>57.16853440584341</v>
       </c>
       <c r="F48" s="9">
         <f>[1]!MF_gas_fraction_d(C48,D48,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G48" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C48,D48,PVRstr1_)</f>
-        <v>1.3095105811563781</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C48,D48,PVRstr1_)</f>
+        <v>1.695530752708913</v>
       </c>
       <c r="I48" s="2">
         <v>1000</v>
       </c>
       <c r="J48" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K48" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J48)</f>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="M48" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J48)</f>
-        <v>146.4111328125</v>
+        <v>154.1015625</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -9399,22 +9399,22 @@
       </c>
       <c r="E49" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C49,D49,PVRstr1_)</f>
-        <v>62.849548282725522</v>
+        <v>57.135779522015703</v>
       </c>
       <c r="F49" s="9">
         <f>[1]!MF_gas_fraction_d(C49,D49,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G49" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C49,D49,PVRstr1_)</f>
-        <v>1.3557177604113138</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C49,D49,PVRstr1_)</f>
+        <v>1.7748213807568383</v>
       </c>
       <c r="I49" s="2">
         <v>1050</v>
       </c>
       <c r="J49" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1050.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1050,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K49" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J49)</f>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="M49" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J49)</f>
-        <v>151.6845703125</v>
+        <v>161.42578125</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -9441,22 +9441,22 @@
       </c>
       <c r="E50" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C50,D50,PVRstr1_)</f>
-        <v>62.8039549004394</v>
+        <v>57.105557751918354</v>
       </c>
       <c r="F50" s="9">
         <f>[1]!MF_gas_fraction_d(C50,D50,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G50" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C50,D50,PVRstr1_)</f>
-        <v>1.4032311292583468</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C50,D50,PVRstr1_)</f>
+        <v>1.8551170932673062</v>
       </c>
       <c r="I50" s="2">
         <v>1100</v>
       </c>
       <c r="J50" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K50" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J50)</f>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="M50" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J50)</f>
-        <v>157.763671875</v>
+        <v>171.6796875</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -9483,22 +9483,22 @@
       </c>
       <c r="E51" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C51,D51,PVRstr1_)</f>
-        <v>62.761976383219647</v>
+        <v>57.077473020828108</v>
       </c>
       <c r="F51" s="9">
         <f>[1]!MF_gas_fraction_d(C51,D51,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G51" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C51,D51,PVRstr1_)</f>
-        <v>1.4517824743738805</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C51,D51,PVRstr1_)</f>
+        <v>1.9358903786391266</v>
       </c>
       <c r="I51" s="2">
         <v>1150</v>
       </c>
       <c r="J51" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K51" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J51)</f>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="M51" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J51)</f>
-        <v>165.8203125</v>
+        <v>188.671875</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -9525,22 +9525,22 @@
       </c>
       <c r="E52" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C52,D52,PVRstr1_)</f>
-        <v>62.723085629320131</v>
+        <v>57.051201562088984</v>
       </c>
       <c r="F52" s="9">
         <f>[1]!MF_gas_fraction_d(C52,D52,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G52" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C52,D52,PVRstr1_)</f>
-        <v>1.5012827064675198</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C52,D52,PVRstr1_)</f>
+        <v>2.0167898633610855</v>
       </c>
       <c r="I52" s="2">
         <v>1200</v>
       </c>
       <c r="J52" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K52" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J52)</f>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="M52" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J52)</f>
-        <v>177.83203125</v>
+        <v>211.23046875</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -9567,22 +9567,22 @@
       </c>
       <c r="E53" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C53,D53,PVRstr1_)</f>
-        <v>62.686847730218247</v>
+        <v>57.026476136572974</v>
       </c>
       <c r="F53" s="9">
         <f>[1]!MF_gas_fraction_d(C53,D53,fw_,PVRstr1_)</f>
         <v>0</v>
       </c>
       <c r="G53" s="9">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C53,D53,PVRstr1_)</f>
-        <v>1.55176118962929</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C53,D53,PVRstr1_)</f>
+        <v>2.0975829431865414</v>
       </c>
       <c r="I53" s="2">
         <v>1250</v>
       </c>
       <c r="J53" s="25" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K53" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J53)</f>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="M53" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J53)</f>
-        <v>196.2890625</v>
+        <v>237.3046875</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -9632,11 +9632,11 @@
         <v>80</v>
       </c>
       <c r="E98" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C98,D98,PVRstr1_)</f>
-        <v>4.0574822364230649E-2</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C98,D98,PVRstr1_)</f>
+        <v>3.9508837527251026E-2</v>
       </c>
       <c r="F98" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2105546241270334E-2</v>
       </c>
       <c r="G98" s="7">
@@ -9658,11 +9658,11 @@
         <v>80</v>
       </c>
       <c r="E99" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C99,D99,PVRstr1_)</f>
-        <v>0.1893440087363846</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C99,D99,PVRstr1_)</f>
+        <v>0.18157827576436122</v>
       </c>
       <c r="F99" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2152607093515563E-2</v>
       </c>
       <c r="G99" s="7">
@@ -9684,11 +9684,11 @@
         <v>80</v>
       </c>
       <c r="E100" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C100,D100,PVRstr1_)</f>
-        <v>0.34619325188466088</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C100,D100,PVRstr1_)</f>
+        <v>0.325857291127499</v>
       </c>
       <c r="F100" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2231437157962866E-2</v>
       </c>
       <c r="G100" s="7">
@@ -9710,11 +9710,11 @@
         <v>80</v>
       </c>
       <c r="E101" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C101,D101,PVRstr1_)</f>
-        <v>0.58039772610102403</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C101,D101,PVRstr1_)</f>
+        <v>0.53142522047317331</v>
       </c>
       <c r="F101" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.242965872389205E-2</v>
       </c>
       <c r="G101" s="7">
@@ -9736,11 +9736,11 @@
         <v>80</v>
       </c>
       <c r="E102" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C102,D102,PVRstr1_)</f>
-        <v>0.84192882109720135</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C102,D102,PVRstr1_)</f>
+        <v>0.75498051455463777</v>
       </c>
       <c r="F102" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.2940038915198142E-2</v>
       </c>
       <c r="G102" s="7">
@@ -9762,11 +9762,11 @@
         <v>80</v>
       </c>
       <c r="E103" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C103,D103,PVRstr1_)</f>
-        <v>0.95659985043074536</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C103,D103,PVRstr1_)</f>
+        <v>0.86227255664952251</v>
       </c>
       <c r="F103" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.3565718967699225E-2</v>
       </c>
       <c r="G103" s="7">
@@ -9788,11 +9788,11 @@
         <v>80</v>
       </c>
       <c r="E104" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C104,D104,PVRstr1_)</f>
-        <v>1.0015398815906351</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C104,D104,PVRstr1_)</f>
+        <v>0.91812671879494301</v>
       </c>
       <c r="F104" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.4281265311255864E-2</v>
       </c>
       <c r="G104" s="7">
@@ -9814,11 +9814,11 @@
         <v>80</v>
       </c>
       <c r="E105" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C105,D105,PVRstr1_)</f>
-        <v>1.0120226232560241</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C105,D105,PVRstr1_)</f>
+        <v>0.94832891380180462</v>
       </c>
       <c r="F105" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5067188178231777E-2</v>
       </c>
       <c r="G105" s="7">
@@ -9840,11 +9840,11 @@
         <v>80</v>
       </c>
       <c r="E106" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C106,D106,PVRstr1_)</f>
-        <v>1.0052527197285539</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C106,D106,PVRstr1_)</f>
+        <v>0.97353289568835177</v>
       </c>
       <c r="F106" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.5906881569035945E-2</v>
       </c>
       <c r="G106" s="7">
@@ -9866,11 +9866,11 @@
         <v>80</v>
       </c>
       <c r="E107" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C107,D107,PVRstr1_)</f>
-        <v>0.99003395359584967</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C107,D107,PVRstr1_)</f>
+        <v>1.010519545543191</v>
       </c>
       <c r="F107" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.6786635470529682E-2</v>
       </c>
       <c r="G107" s="7">
@@ -9892,11 +9892,11 @@
         <v>80</v>
       </c>
       <c r="E108" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C108,D108,PVRstr1_)</f>
-        <v>0.97098242916736133</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C108,D108,PVRstr1_)</f>
+        <v>1.0530067961645928</v>
       </c>
       <c r="F108" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.7696649218225117E-2</v>
       </c>
       <c r="G108" s="7">
@@ -9918,11 +9918,11 @@
         <v>80</v>
       </c>
       <c r="E109" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C109,D109,PVRstr1_)</f>
-        <v>0.98793912415201102</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C109,D109,PVRstr1_)</f>
+        <v>1.1004514219075594</v>
       </c>
       <c r="F109" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.8632637091865627E-2</v>
       </c>
       <c r="G109" s="7">
@@ -9944,11 +9944,11 @@
         <v>80</v>
       </c>
       <c r="E110" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C110,D110,PVRstr1_)</f>
-        <v>1.0140076087362149</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C110,D110,PVRstr1_)</f>
+        <v>1.1524269964330116</v>
       </c>
       <c r="F110" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>1.959793520234334E-2</v>
       </c>
       <c r="G110" s="7">
@@ -9970,11 +9970,11 @@
         <v>80</v>
       </c>
       <c r="E111" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C111,D111,PVRstr1_)</f>
-        <v>1.0427522794318631</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C111,D111,PVRstr1_)</f>
+        <v>1.2085814684237663</v>
       </c>
       <c r="F111" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.0606043940918212E-2</v>
       </c>
       <c r="G111" s="7">
@@ -9996,11 +9996,11 @@
         <v>80</v>
       </c>
       <c r="E112" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C112,D112,PVRstr1_)</f>
-        <v>1.0740125122644342</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C112,D112,PVRstr1_)</f>
+        <v>1.2686117082598487</v>
       </c>
       <c r="F112" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.1683383160038823E-2</v>
       </c>
       <c r="G112" s="7">
@@ -10025,11 +10025,11 @@
         <v>80</v>
       </c>
       <c r="E113" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C113,D113,PVRstr1_)</f>
-        <v>1.1076729021604708</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C113,D113,PVRstr1_)</f>
+        <v>1.3322475954904465</v>
       </c>
       <c r="F113" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.2871605188958734E-2</v>
       </c>
       <c r="G113" s="7">
@@ -10051,11 +10051,11 @@
         <v>80</v>
       </c>
       <c r="E114" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C114,D114,PVRstr1_)</f>
-        <v>1.1436545591427978</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C114,D114,PVRstr1_)</f>
+        <v>1.3992403776034839</v>
       </c>
       <c r="F114" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.422784902336915E-2</v>
       </c>
       <c r="G114" s="7">
@@ -10077,11 +10077,11 @@
         <v>80</v>
       </c>
       <c r="E115" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C115,D115,PVRstr1_)</f>
-        <v>1.181903418610887</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C115,D115,PVRstr1_)</f>
+        <v>1.46934971037581</v>
       </c>
       <c r="F115" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.5819443725453597E-2</v>
       </c>
       <c r="G115" s="7">
@@ -10103,11 +10103,11 @@
         <v>80</v>
       </c>
       <c r="E116" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C116,D116,PVRstr1_)</f>
-        <v>1.2223685247043523</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C116,D116,PVRstr1_)</f>
+        <v>1.5423218974058981</v>
       </c>
       <c r="F116" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.7706850757567025E-2</v>
       </c>
       <c r="G116" s="7">
@@ -10129,11 +10129,11 @@
         <v>80</v>
       </c>
       <c r="E117" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C117,D117,PVRstr1_)</f>
-        <v>1.2649628676068878</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C117,D117,PVRstr1_)</f>
+        <v>1.6178516192848016</v>
       </c>
       <c r="F117" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>2.9907947532178368E-2</v>
       </c>
       <c r="G117" s="7">
@@ -10155,11 +10155,11 @@
         <v>80</v>
       </c>
       <c r="E118" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C118,D118,PVRstr1_)</f>
-        <v>1.3095105811563781</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C118,D118,PVRstr1_)</f>
+        <v>1.695530752708913</v>
       </c>
       <c r="F118" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.234779767218704E-2</v>
       </c>
       <c r="G118" s="7">
@@ -10181,11 +10181,11 @@
         <v>80</v>
       </c>
       <c r="E119" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C119,D119,PVRstr1_)</f>
-        <v>1.3557177604113138</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C119,D119,PVRstr1_)</f>
+        <v>1.7748213807568383</v>
       </c>
       <c r="F119" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.4831394992291626E-2</v>
       </c>
       <c r="G119" s="7">
@@ -10207,11 +10207,11 @@
         <v>80</v>
       </c>
       <c r="E120" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C120,D120,PVRstr1_)</f>
-        <v>1.4032311292583468</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C120,D120,PVRstr1_)</f>
+        <v>1.8551170932673062</v>
       </c>
       <c r="F120" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.7103767854624728E-2</v>
       </c>
       <c r="G120" s="7">
@@ -10233,11 +10233,11 @@
         <v>80</v>
       </c>
       <c r="E121" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C121,D121,PVRstr1_)</f>
-        <v>1.4517824743738805</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C121,D121,PVRstr1_)</f>
+        <v>1.9358903786391266</v>
       </c>
       <c r="F121" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>3.8995470709754662E-2</v>
       </c>
       <c r="G121" s="7">
@@ -10259,11 +10259,11 @@
         <v>80</v>
       </c>
       <c r="E122" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C122,D122,PVRstr1_)</f>
-        <v>1.5012827064675198</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C122,D122,PVRstr1_)</f>
+        <v>2.0167898633610855</v>
       </c>
       <c r="F122" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.0517403578276795E-2</v>
       </c>
       <c r="G122" s="7">
@@ -10285,11 +10285,11 @@
         <v>80</v>
       </c>
       <c r="E123" s="6">
-        <f>[1]!MF_Mu_mix_cP(Q_,fw_,C123,D123,PVRstr1_)</f>
-        <v>1.55176118962929</v>
+        <f>[1]!MF_mu_mix_cP(Q_,fw_,C123,D123,PVRstr1_)</f>
+        <v>2.0975829431865414</v>
       </c>
       <c r="F123" s="7">
-        <f>[1]!PVT_Mu_gas_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_mu_gas_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>4.1800659307069124E-2</v>
       </c>
       <c r="G123" s="7">

--- a/excercises/excercises/30.MF_gas_fraction.xlsx
+++ b/excercises/excercises/30.MF_gas_fraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D0949-085E-4CC7-933B-109BA43D1ABA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC0B7B-601D-4125-8118-6F335E259044}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7609,7 +7609,7 @@
       <definedName name="MF_mu_mix_cP"/>
       <definedName name="MF_p_gas_fraction_atma"/>
       <definedName name="MF_q_mix_rc_m3day"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_encode_string"/>
       <definedName name="PVT_mu_gas_cP"/>
       <definedName name="PVT_mu_oil_cP"/>
       <definedName name="PVT_mu_wat_cP"/>
@@ -8210,8 +8210,8 @@
   </sheetPr>
   <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8431,7 +8431,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="24" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="D20" s="24"/>
@@ -8531,7 +8531,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K28" s="8">
@@ -8573,7 +8573,7 @@
         <v>50</v>
       </c>
       <c r="J29" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K29" s="8">
@@ -8615,7 +8615,7 @@
         <v>100</v>
       </c>
       <c r="J30" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K30" s="8">
@@ -8657,7 +8657,7 @@
         <v>150</v>
       </c>
       <c r="J31" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K31" s="8">
@@ -8699,7 +8699,7 @@
         <v>200</v>
       </c>
       <c r="J32" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K32" s="8">
@@ -8741,7 +8741,7 @@
         <v>250</v>
       </c>
       <c r="J33" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K33" s="8">
@@ -8783,7 +8783,7 @@
         <v>300</v>
       </c>
       <c r="J34" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K34" s="8">
@@ -8825,7 +8825,7 @@
         <v>350</v>
       </c>
       <c r="J35" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K35" s="8">
@@ -8867,7 +8867,7 @@
         <v>400</v>
       </c>
       <c r="J36" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K36" s="8">
@@ -8909,7 +8909,7 @@
         <v>450</v>
       </c>
       <c r="J37" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K37" s="8">
@@ -8951,7 +8951,7 @@
         <v>500</v>
       </c>
       <c r="J38" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K38" s="8">
@@ -8993,7 +8993,7 @@
         <v>550</v>
       </c>
       <c r="J39" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K39" s="8">
@@ -9035,7 +9035,7 @@
         <v>600</v>
       </c>
       <c r="J40" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K40" s="8">
@@ -9077,7 +9077,7 @@
         <v>650</v>
       </c>
       <c r="J41" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K41" s="8">
@@ -9119,7 +9119,7 @@
         <v>700</v>
       </c>
       <c r="J42" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K42" s="8">
@@ -9161,7 +9161,7 @@
         <v>750</v>
       </c>
       <c r="J43" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K43" s="8">
@@ -9203,7 +9203,7 @@
         <v>800</v>
       </c>
       <c r="J44" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K44" s="8">
@@ -9245,7 +9245,7 @@
         <v>850</v>
       </c>
       <c r="J45" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K45" s="8">
@@ -9287,7 +9287,7 @@
         <v>900</v>
       </c>
       <c r="J46" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K46" s="8">
@@ -9329,7 +9329,7 @@
         <v>950</v>
       </c>
       <c r="J47" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K47" s="8">
@@ -9371,7 +9371,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K48" s="8">
@@ -9413,7 +9413,7 @@
         <v>1050</v>
       </c>
       <c r="J49" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1050,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K49" s="8">
@@ -9455,7 +9455,7 @@
         <v>1100</v>
       </c>
       <c r="J50" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K50" s="8">
@@ -9497,7 +9497,7 @@
         <v>1150</v>
       </c>
       <c r="J51" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K51" s="8">
@@ -9539,7 +9539,7 @@
         <v>1200</v>
       </c>
       <c r="J52" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K52" s="8">
@@ -9581,7 +9581,7 @@
         <v>1250</v>
       </c>
       <c r="J53" s="25" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="K53" s="8">

--- a/excercises/excercises/30.MF_gas_fraction.xlsx
+++ b/excercises/excercises/30.MF_gas_fraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCC0B7B-601D-4125-8118-6F335E259044}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C9D94B-2D47-445E-9017-7D4566C450E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -8210,29 +8210,29 @@
   </sheetPr>
   <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="13" width="10.1796875" customWidth="1"/>
+    <col min="23" max="26" width="9.1796875" customWidth="1"/>
+    <col min="27" max="27" width="5.81640625" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -8241,20 +8241,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.9</v>
+        <v>7.10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
@@ -8396,12 +8396,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="16" x14ac:dyDescent="0.4">
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B18" s="18" t="s">
         <v>37</v>
       </c>
@@ -8423,16 +8423,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="24" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -8452,9 +8452,9 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="24" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="K26" s="2">
         <v>0.25</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" ht="32.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="C27" s="19" t="s">
         <v>0</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <v>1</v>
       </c>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="J28" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J28)</f>
@@ -8549,7 +8549,7 @@
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <v>5</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="J29" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J29)</f>
@@ -8591,7 +8591,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <v>10</v>
       </c>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="J30" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J30)</f>
@@ -8633,7 +8633,7 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <v>20</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
       <c r="J31" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J31)</f>
@@ -8675,7 +8675,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <v>40</v>
       </c>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="J32" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J32)</f>
@@ -8717,7 +8717,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>60</v>
       </c>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="J33" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J33)</f>
@@ -8759,7 +8759,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <v>80</v>
       </c>
@@ -8784,7 +8784,7 @@
       </c>
       <c r="J34" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J34)</f>
@@ -8801,7 +8801,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <v>100</v>
       </c>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="J35" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J35)</f>
@@ -8843,7 +8843,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <v>120</v>
       </c>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="J36" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J36)</f>
@@ -8885,7 +8885,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <v>140</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="J37" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J37)</f>
@@ -8927,7 +8927,7 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <v>160</v>
       </c>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="J38" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J38)</f>
@@ -8969,7 +8969,7 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <v>180</v>
       </c>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="J39" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K39" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J39)</f>
@@ -9011,7 +9011,7 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <v>200</v>
       </c>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="J40" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K40" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J40)</f>
@@ -9053,7 +9053,7 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <v>220</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="J41" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K41" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J41)</f>
@@ -9095,7 +9095,7 @@
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <v>240</v>
       </c>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="J42" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K42" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J42)</f>
@@ -9137,7 +9137,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <v>260</v>
       </c>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="J43" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K43" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J43)</f>
@@ -9179,7 +9179,7 @@
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <v>280</v>
       </c>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="J44" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K44" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J44)</f>
@@ -9221,7 +9221,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <v>300</v>
       </c>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="J45" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K45" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J45)</f>
@@ -9263,7 +9263,7 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <v>320</v>
       </c>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="J46" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K46" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J46)</f>
@@ -9305,7 +9305,7 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <v>340</v>
       </c>
@@ -9330,7 +9330,7 @@
       </c>
       <c r="J47" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K47" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J47)</f>
@@ -9347,7 +9347,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <v>360</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="J48" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K48" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J48)</f>
@@ -9389,7 +9389,7 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <v>380</v>
       </c>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="J49" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1050,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1050.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K49" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J49)</f>
@@ -9431,7 +9431,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <v>400</v>
       </c>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="J50" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1100,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1100.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K50" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J50)</f>
@@ -9473,7 +9473,7 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <v>420</v>
       </c>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="J51" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1150,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1150.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K51" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J51)</f>
@@ -9515,7 +9515,7 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <v>440</v>
       </c>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="J52" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1200,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1200.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K52" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J52)</f>
@@ -9557,7 +9557,7 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <v>460</v>
       </c>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="J53" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1250,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1250.000;pb_atma:120.000;t_res_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K53" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J53)</f>
@@ -9599,8 +9599,8 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="3:12" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="3:12" ht="17.5" x14ac:dyDescent="0.45">
       <c r="C97" s="10" t="str">
         <f t="shared" ref="C97:D106" si="1">C27</f>
         <v>P</v>
@@ -9622,7 +9622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>0.33586886209810729</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9674,7 +9674,7 @@
         <v>0.3366698582445789</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9700,7 +9700,7 @@
         <v>0.33768124309210917</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101" s="24">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -9726,7 +9726,7 @@
         <v>0.33973781166863876</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9752,7 +9752,7 @@
         <v>0.34398614434757446</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C103" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9778,7 +9778,7 @@
         <v>0.34841473772767878</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C104" s="24">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9804,7 +9804,7 @@
         <v>0.35302359180895171</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C105" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -9830,7 +9830,7 @@
         <v>0.3578127065913933</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C106" s="24">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -9856,7 +9856,7 @@
         <v>0.36278208207500345</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C107" s="24">
         <f t="shared" ref="C107:D116" si="2">C37</f>
         <v>140</v>
@@ -9882,7 +9882,7 @@
         <v>0.36793171825978227</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C108" s="24">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -9908,7 +9908,7 @@
         <v>0.3732616151457297</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C109" s="24">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -9934,7 +9934,7 @@
         <v>0.37877177273284574</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C110" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -9960,7 +9960,7 @@
         <v>0.38446219102113038</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C111" s="24">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -9986,7 +9986,7 @@
         <v>0.39033287001058364</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C112" s="24">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -10015,7 +10015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C113" s="24">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -10041,7 +10041,7 @@
         <v>0.40261501009299605</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C114" s="24">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -10067,7 +10067,7 @@
         <v>0.4090264711859552</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C115" s="24">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -10093,7 +10093,7 @@
         <v>0.4156181929800829</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C116" s="24">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10119,7 +10119,7 @@
         <v>0.42239017547537927</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C117" s="24">
         <f t="shared" ref="C117:D123" si="3">C47</f>
         <v>340</v>
@@ -10145,7 +10145,7 @@
         <v>0.42934241867184425</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C118" s="24">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10171,7 +10171,7 @@
         <v>0.4364749225694779</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C119" s="24">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -10197,7 +10197,7 @@
         <v>0.4437876871682801</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C120" s="24">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -10223,7 +10223,7 @@
         <v>0.45128071246825097</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C121" s="24">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -10249,7 +10249,7 @@
         <v>0.45895399846939039</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C122" s="24">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -10275,7 +10275,7 @@
         <v>0.46680754517169848</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C123" s="24">
         <f t="shared" si="3"/>
         <v>460</v>
